--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyGameProduction\Mumei(No Name)\Assets\Originals\Excels\Talk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF6D9C8-1684-4B14-B593-5AE2A097DAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA091DB1-8E99-4B15-B2D8-0DBA1319F7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7836" yWindow="2892" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talkMessage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -34,17 +45,251 @@
     <t>message</t>
   </si>
   <si>
-    <t>ここは…どこだ…。</t>
-  </si>
-  <si>
-    <t>目が覚めたようだね。</t>
+    <t>目が覚めたようだね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speakerName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夢迷？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この常世にある巨大な迷宮のことさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つまり　君もそのうちの1人ということさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罪？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君は現世で"罪”を犯して死亡した
+罪を犯した人間は　みんなこの夢迷に幽閉される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そう　とてもとても大きな罪</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ところで　自分の名前は分かるかい？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>えっと…名前は…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あれ……わからない……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分からなくて当然だよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君はこの迷宮に来る前に名前を破棄されたのだから</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どういうこと？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前を…破棄…？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常世で名前を破棄された者は
+自分の名前を思い出すことができないのさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうして…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんな…酷いよ…</t>
+    <rPh sb="4" eb="5">
+      <t>ヒド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらゆる苦痛を受けながら
+この迷宮で永遠に彷徨うことになるのさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君もいずれ　そうなるだろうね</t>
+    <rPh sb="0" eb="1">
+      <t>キミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>僕の名前はカナメ
+“夢迷”の案内者さ</t>
+    <rPh sb="16" eb="17">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここは…どこだ…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そして　名前を思い出せない者は…</t>
+    <rPh sb="7" eb="8">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でも安心して</t>
+    <rPh sb="2" eb="4">
+      <t>アンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罪人に名前はいらないからね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この迷宮から脱出できたら　名前を思い出させてあげるよ</t>
+    <rPh sb="2" eb="4">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうすれば　苦痛を受けることはないし
+彷徨うこともない</t>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サマヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でも　どうすれば脱出できるの？</t>
+    <rPh sb="8" eb="10">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…1つ　条件がある</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それは　僕からの試練に挑戦し乗り越えること</t>
+    <rPh sb="4" eb="5">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シレン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうすれば　脱出できるよ</t>
+    <rPh sb="6" eb="8">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……脱出したい！</t>
+    <rPh sb="2" eb="4">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……挑戦したい！</t>
+    <rPh sb="2" eb="4">
+      <t>チョウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…僕からの試練　挑戦するかい？</t>
+    <rPh sb="8" eb="10">
+      <t>チョウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…この迷宮から脱出したいかい？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…分かった
+それじゃあ　試練の内容を説明するよ</t>
+    <rPh sb="1" eb="2">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シレン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,9 +306,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,9 +341,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -369,181 +631,748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="56" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5">
       <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
       <c r="A8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="37.5">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="37.5">
       <c r="A22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="37.5">
       <c r="A29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37.5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA091DB1-8E99-4B15-B2D8-0DBA1319F7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2572C1-0B6A-4548-A69A-1EAEA1A7DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -182,16 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この迷宮から脱出できたら　名前を思い出させてあげるよ</t>
-    <rPh sb="2" eb="4">
-      <t>メイキュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ダッシュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>そうすれば　苦痛を受けることはないし
 彷徨うこともない</t>
     <rPh sb="9" eb="10">
@@ -210,13 +200,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>…1つ　条件がある</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>それは　僕からの試練に挑戦し乗り越えること</t>
     <rPh sb="4" eb="5">
       <t>ボク</t>
@@ -261,10 +244,6 @@
     <rPh sb="8" eb="10">
       <t>チョウセン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…この迷宮から脱出したいかい？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -282,6 +261,78 @@
     <rPh sb="18" eb="20">
       <t>セツメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…1つ　方法がある</t>
+    <rPh sb="4" eb="6">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現世で犯した"罪"を思い出して　この迷宮から脱出できたら　
+君の名前を教えてあげるよ</t>
+    <rPh sb="18" eb="20">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…ここから脱出したいかい？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試練を乗り越えるためには
+2つの条件を達成する必要がある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つ　この迷宮から脱出すること
+1つ　君が現世で犯した"罪"を思い出すこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この迷宮から脱出する方法について説明するよ</t>
+  </si>
+  <si>
+    <t>まず　"ドキュメント"を入手すること</t>
+  </si>
+  <si>
+    <t>試しに目の前にあるドキュメントを手に取ってごらん</t>
+  </si>
+  <si>
+    <t>今手に取ったドキュメントの中を確認してごらん</t>
+  </si>
+  <si>
+    <t>次に　"ミステリーアイテム"を入手すること</t>
+  </si>
+  <si>
+    <t>最後に　奥にあるオブジェクトに触れて</t>
+  </si>
+  <si>
+    <t>ドキュメントの内容と深い関係がある
+ミステリーアイテムを選択すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夢迷から脱出する方法についてはこれで終わりだよ</t>
+  </si>
+  <si>
+    <t>目の前にある2つのミステリーアイテムを手に取ってごらん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今手に取ったミステリーアイテムを確認してごらん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -633,13 +684,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="56" style="2" customWidth="1"/>
+    <col min="2" max="2" width="63.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -934,12 +985,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="37.5">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -950,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -961,7 +1012,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -972,7 +1023,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -983,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -994,7 +1045,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1005,7 +1056,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1016,7 +1067,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1027,7 +1078,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1038,7 +1089,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1049,10 +1100,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1060,127 +1111,199 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="37.5">
       <c r="A40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="37.5">
       <c r="A41">
         <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="37.5">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:3">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:3">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:3">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:3">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:3">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:3">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:3">
       <c r="A59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:3">
       <c r="A60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:3">
       <c r="A61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:3">
       <c r="A62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:3">
       <c r="A63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:3">
       <c r="A64">
         <v>62</v>
       </c>

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2572C1-0B6A-4548-A69A-1EAEA1A7DA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C113F5E9-04EF-4696-9CBB-AA9D0A834844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C113F5E9-04EF-4696-9CBB-AA9D0A834844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A36FF-3BDA-43FC-AED1-422532DEC5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -271,23 +271,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現世で犯した"罪"を思い出して　この迷宮から脱出できたら　
-君の名前を教えてあげるよ</t>
-    <rPh sb="18" eb="20">
-      <t>メイキュウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ダッシュツ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キミ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>オシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>…ここから脱出したいかい？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -297,11 +280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1つ　この迷宮から脱出すること
-1つ　君が現世で犯した"罪"を思い出すこと</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>この迷宮から脱出する方法について説明するよ</t>
   </si>
   <si>
@@ -325,14 +303,232 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>夢迷から脱出する方法についてはこれで終わりだよ</t>
-  </si>
-  <si>
     <t>目の前にある2つのミステリーアイテムを手に取ってごらん</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>今手に取ったミステリーアイテムを確認してごらん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つ　この迷宮から脱出すること
+1つ　君が現世で犯した罪を思い出すこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現世で犯した罪を思い出して　この迷宮から脱出できたら　
+君の名前を教えてあげるよ</t>
+    <rPh sb="16" eb="18">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あれ？　僕が犯した罪についての説明はしてくれないの？</t>
+    <rPh sb="4" eb="5">
+      <t>ボク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しないよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え……じゃないよ　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本当に悪いことしたと思っているなら
+すぐに罪を思い出すことができるはずさ</t>
+    <rPh sb="0" eb="2">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツミ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だから説明はこれで終わり</t>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試練の説明はこれで終わり
+なにか質問はあるかい？</t>
+    <rPh sb="0" eb="2">
+      <t>シレン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あと　名前がないと不便だから
+君のことを仮で"イフ"と呼ばせてもらうよ</t>
+    <rPh sb="9" eb="11">
+      <t>フベン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それでいいよね？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え……う…うん……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に　この迷宮について1つ注意事項がある</t>
+    <rPh sb="6" eb="8">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注意事項？</t>
+    <rPh sb="0" eb="4">
+      <t>チュウイジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彷徨う者？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"彷徨う者"には絶対に捕まるな</t>
+    <rPh sb="1" eb="3">
+      <t>サマヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イフ　とにかくその化け物に捕まっちゃダメだよ</t>
+    <rPh sb="9" eb="10">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かったかい？</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>……う…うん……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それじゃあ　これから試練を始めるよ</t>
+    <rPh sb="10" eb="12">
+      <t>シレン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夢迷に潜む化け物のことさ</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒソ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イフ　君が試練をクリアすることを祈っているよ</t>
+    <rPh sb="3" eb="4">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シレン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イノ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -684,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -990,7 +1186,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -1012,7 +1208,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1116,7 +1312,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1127,7 +1323,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1138,7 +1334,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1149,7 +1345,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1160,7 +1356,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1171,7 +1367,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1182,7 +1378,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1193,7 +1389,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1204,7 +1400,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1215,7 +1411,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1226,18 +1422,18 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" ht="37.5">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
+      <c r="B51" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1247,143 +1443,257 @@
       <c r="A52">
         <v>50</v>
       </c>
+      <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
         <v>51</v>
       </c>
+      <c r="B53" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
         <v>52</v>
       </c>
+      <c r="B54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="37.5">
       <c r="A56">
         <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="37.5">
       <c r="A58">
         <v>56</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
         <v>57</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
         <v>58</v>
       </c>
+      <c r="B60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
         <v>59</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
         <v>60</v>
       </c>
+      <c r="B62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
         <v>61</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:3">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:3">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:3">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:3">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:3">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:3">
       <c r="A77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:3">
       <c r="A78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:3">
       <c r="A79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:3">
       <c r="A80">
         <v>78</v>
       </c>

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A36FF-3BDA-43FC-AED1-422532DEC5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56588D-FDB7-4D1A-B458-52F4D757EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -528,6 +528,65 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>イノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どうして迷宮がまだ続いているの！？</t>
+    <rPh sb="4" eb="6">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…これで…やっと…この迷宮から脱出できる…(階段を上る)</t>
+    <rPh sb="11" eb="13">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダッシュツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイダン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え……なに…これ……(上ったさきにまだ迷宮が続いていることに気づく)</t>
+    <rPh sb="19" eb="21">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんなの決まっているじゃないか</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>君がまだ迷宮から脱出できていないからさ</t>
+    <rPh sb="0" eb="1">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ダッシュツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -880,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1657,25 +1716,55 @@
       <c r="A72">
         <v>70</v>
       </c>
+      <c r="B72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
         <v>71</v>
       </c>
+      <c r="B73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
         <v>72</v>
       </c>
+      <c r="B74" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
         <v>73</v>
       </c>
+      <c r="B75" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
         <v>74</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3">

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B56588D-FDB7-4D1A-B458-52F4D757EB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D200735-5CA1-41A7-86E1-AA47E69E6C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -542,35 +542,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>…これで…やっと…この迷宮から脱出できる…(階段を上る)</t>
-    <rPh sb="11" eb="13">
-      <t>メイキュウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ダッシュツ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイダン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ノボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>え……なに…これ……(上ったさきにまだ迷宮が続いていることに気づく)</t>
-    <rPh sb="19" eb="21">
-      <t>メイキュウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツヅ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>そんなの決まっているじゃないか</t>
     <rPh sb="4" eb="5">
       <t>キ</t>
@@ -587,6 +558,82 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もしかしてそれで終わりだと思ってる？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメントとミステリーアイテムは
+他のエリアにもあるんだよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うそ…でしょ…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それに　イフが犯した罪もまだ思い出してないでしょ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だから試練はまだ終わらないよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…脱出できてないって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドキュメントもミステリーアイテムも
+ちゃんと集めたじゃないか！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>え……なに…これ……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…これで…やっと…この迷宮から脱出できる…</t>
+    <rPh sb="11" eb="13">
+      <t>メイキュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そんな……</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大変だと思うけど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これからも頑張ろうね　イフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夢迷の本当の恐ろしさはここからさ　イフ</t>
+    <rPh sb="0" eb="1">
+      <t>ユメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オソ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -939,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1717,7 +1764,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -1728,7 +1775,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -1750,7 +1797,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -1761,7 +1808,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1771,98 +1818,176 @@
       <c r="A77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="B77" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="37.5">
       <c r="A78">
         <v>76</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
         <v>77</v>
       </c>
+      <c r="B79" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="37.5">
       <c r="A81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:3">
       <c r="A91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:3">
       <c r="A92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:3">
       <c r="A93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:3">
       <c r="A94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:3">
       <c r="A95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:3">
       <c r="A96">
         <v>94</v>
       </c>

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D200735-5CA1-41A7-86E1-AA47E69E6C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C41409-2298-4E63-9728-6969BB7BD38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,9 +295,6 @@
     <t>次に　"ミステリーアイテム"を入手すること</t>
   </si>
   <si>
-    <t>最後に　奥にあるオブジェクトに触れて</t>
-  </si>
-  <si>
     <t>ドキュメントの内容と深い関係がある
 ミステリーアイテムを選択すること</t>
     <phoneticPr fontId="1"/>
@@ -635,6 +632,10 @@
     <rPh sb="6" eb="7">
       <t>オソ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後に　奥にある「裁きの青玉」に触れて</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -986,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1292,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -1429,7 +1430,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1495,7 +1496,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1506,7 +1507,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1517,7 +1518,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1528,7 +1529,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1539,7 +1540,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1550,7 +1551,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -1561,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1583,7 +1584,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1594,7 +1595,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1605,7 +1606,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1616,7 +1617,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -1627,7 +1628,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -1638,7 +1639,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
@@ -1649,7 +1650,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -1660,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -1671,7 +1672,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -1682,7 +1683,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
         <v>3</v>
@@ -1693,7 +1694,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -1704,7 +1705,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -1715,7 +1716,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -1726,7 +1727,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
@@ -1737,7 +1738,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -1748,7 +1749,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -1764,7 +1765,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>3</v>
@@ -1775,7 +1776,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>3</v>
@@ -1786,7 +1787,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -1797,7 +1798,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -1808,7 +1809,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -1819,7 +1820,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
         <v>3</v>
@@ -1830,7 +1831,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -1841,7 +1842,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -1863,7 +1864,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -1874,7 +1875,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" t="s">
         <v>3</v>
@@ -1885,7 +1886,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -1896,7 +1897,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
         <v>3</v>
@@ -1907,7 +1908,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -1918,7 +1919,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
@@ -1929,7 +1930,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -1940,7 +1941,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -1951,7 +1952,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C41409-2298-4E63-9728-6969BB7BD38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7686CD17-DA0C-4C02-9CD1-F9EECD237188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
   <si>
     <t>number</t>
     <phoneticPr fontId="1"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>目が覚めたようだね</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Player</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -636,6 +632,17 @@
   </si>
   <si>
     <t>最後に　奥にある「裁きの青玉」に触れて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなた</t>
+  </si>
+  <si>
+    <t>あなた</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？？？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -987,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1005,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1018,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1032,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.5">
@@ -1040,10 +1047,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1051,10 +1058,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1062,10 +1069,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5">
@@ -1073,10 +1080,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1084,10 +1091,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1095,10 +1102,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1106,10 +1113,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1117,10 +1124,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1128,10 +1135,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1139,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1150,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1161,10 +1168,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1172,10 +1179,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1183,10 +1190,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="37.5">
@@ -1194,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1205,10 +1212,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1216,10 +1223,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="37.5">
@@ -1227,10 +1234,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1238,10 +1245,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1249,10 +1256,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1260,10 +1267,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1271,10 +1278,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1282,10 +1289,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="37.5">
@@ -1293,10 +1300,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="37.5">
@@ -1304,10 +1311,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1315,10 +1322,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1326,10 +1333,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1337,10 +1344,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1348,10 +1355,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1359,10 +1366,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1370,10 +1377,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1381,10 +1388,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1392,10 +1399,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="37.5">
@@ -1403,10 +1410,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1419,10 +1426,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="37.5">
@@ -1430,10 +1437,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1441,10 +1448,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1452,10 +1459,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1463,10 +1470,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1474,10 +1481,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1485,10 +1492,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1496,10 +1503,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1507,10 +1514,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1518,10 +1525,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="37.5">
@@ -1529,10 +1536,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="37.5">
@@ -1540,10 +1547,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1551,10 +1558,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1562,10 +1569,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1573,10 +1580,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1584,10 +1591,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="37.5">
@@ -1595,10 +1602,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1606,10 +1613,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="37.5">
@@ -1617,10 +1624,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1628,10 +1635,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1639,10 +1646,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1650,10 +1657,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1661,10 +1668,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1672,10 +1679,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1683,10 +1690,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1694,10 +1701,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1705,10 +1712,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1716,10 +1723,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1727,10 +1734,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1738,10 +1745,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1749,10 +1756,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1765,10 +1772,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1776,10 +1783,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1787,10 +1794,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1798,10 +1805,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1809,10 +1816,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1820,10 +1827,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="37.5">
@@ -1831,10 +1838,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1842,10 +1849,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1853,10 +1860,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="37.5">
@@ -1864,10 +1871,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1875,10 +1882,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1886,10 +1893,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1897,10 +1904,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1908,10 +1915,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1919,10 +1926,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1930,10 +1937,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1941,10 +1948,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1952,10 +1959,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7686CD17-DA0C-4C02-9CD1-F9EECD237188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFDADF-0F0F-40CA-BC39-C546C4C875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,19 +276,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この迷宮から脱出する方法について説明するよ</t>
-  </si>
-  <si>
-    <t>まず　"ドキュメント"を入手すること</t>
-  </si>
-  <si>
-    <t>試しに目の前にあるドキュメントを手に取ってごらん</t>
-  </si>
-  <si>
     <t>今手に取ったドキュメントの中を確認してごらん</t>
-  </si>
-  <si>
-    <t>次に　"ミステリーアイテム"を入手すること</t>
   </si>
   <si>
     <t>ドキュメントの内容と深い関係がある
@@ -643,6 +631,24 @@
   </si>
   <si>
     <t>？？？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この迷宮から脱出する方法について説明するよ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まず　ドキュメントを入手すること
+試しに目の前にあるドキュメントを手に取ってごらん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に　ミステリーアイテムを入手すること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱出には　"ドキュメント"と"ミステリーアイテム"を
+この迷宮のあらゆる場所から探して見つけ出す必要がある</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -994,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1028,7 +1034,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1039,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.5">
@@ -1061,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1105,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1138,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1149,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1182,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1193,7 +1199,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="37.5">
@@ -1215,7 +1221,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1259,7 +1265,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1270,7 +1276,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1300,7 +1306,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
@@ -1336,7 +1342,7 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1347,7 +1353,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1402,7 +1408,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="37.5">
@@ -1437,7 +1443,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
@@ -1448,29 +1454,29 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" ht="37.5">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" ht="37.5">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>42</v>
+      <c r="B44" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1481,7 +1487,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1492,7 +1498,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1503,7 +1509,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
@@ -1514,7 +1520,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
@@ -1525,7 +1531,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -1536,7 +1542,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
@@ -1547,7 +1553,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
@@ -1558,10 +1564,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1569,7 +1575,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
@@ -1583,7 +1589,7 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1591,7 +1597,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
         <v>3</v>
@@ -1602,7 +1608,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
         <v>3</v>
@@ -1613,7 +1619,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
         <v>3</v>
@@ -1624,7 +1630,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
@@ -1635,7 +1641,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
@@ -1646,10 +1652,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1657,7 +1663,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1668,10 +1674,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1679,7 +1685,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
         <v>3</v>
@@ -1690,10 +1696,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1701,7 +1707,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1712,7 +1718,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
@@ -1723,7 +1729,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
         <v>3</v>
@@ -1734,10 +1740,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1745,7 +1751,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1756,7 +1762,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -1772,10 +1778,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1783,10 +1789,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1794,10 +1800,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1805,7 +1811,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1816,7 +1822,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -1827,10 +1833,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="37.5">
@@ -1838,10 +1844,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1849,7 +1855,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -1863,7 +1869,7 @@
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="37.5">
@@ -1871,7 +1877,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -1882,10 +1888,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1893,7 +1899,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1904,10 +1910,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1915,7 +1921,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -1926,10 +1932,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1937,7 +1943,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -1948,7 +1954,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -1959,7 +1965,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>

--- a/Assets/Originals/Excels/Talk/TalkMessage.xlsx
+++ b/Assets/Originals/Excels/Talk/TalkMessage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001.MyGameProductionBackUp\001.Unity\Mumei\GitFolders\Mumei\Assets\Originals\Excels\Talk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFDADF-0F0F-40CA-BC39-C546C4C875D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EFD1D2-21A4-4599-B3DA-D7E128248495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,16 +471,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>それじゃあ　これから試練を始めるよ</t>
-    <rPh sb="10" eb="12">
-      <t>シレン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>夢迷に潜む化け物のことさ</t>
     <rPh sb="0" eb="1">
       <t>ユメ</t>
@@ -649,6 +639,26 @@
   <si>
     <t>脱出には　"ドキュメント"と"ミステリーアイテム"を
 この迷宮のあらゆる場所から探して見つけ出す必要がある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それじゃあ　これから試練を始めるよ
+後ろの通路へと進んでもらおうか</t>
+    <rPh sb="10" eb="12">
+      <t>シレン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツウロ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スス</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1000,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1034,7 +1044,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1045,7 +1055,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="37.5">
@@ -1067,7 +1077,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1111,7 +1121,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1144,7 +1154,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1155,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1188,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1199,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="37.5">
@@ -1221,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1265,7 +1275,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1276,7 +1286,7 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1342,7 +1352,7 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1353,7 +1363,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1408,7 +1418,7 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="37.5">
@@ -1454,7 +1464,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
@@ -1465,7 +1475,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
@@ -1476,7 +1486,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
@@ -1498,7 +1508,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
@@ -1531,7 +1541,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
@@ -1567,7 +1577,7 @@
         <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1589,7 +1599,7 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1655,7 +1665,7 @@
         <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1677,7 +1687,7 @@
         <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1699,7 +1709,7 @@
         <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1707,7 +1717,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
@@ -1743,15 +1753,15 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="37.5">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1762,7 +1772,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
         <v>3</v>
@@ -1778,10 +1788,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1789,10 +1799,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1800,10 +1810,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1811,7 +1821,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1822,7 +1832,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C76" t="s">
         <v>3</v>
@@ -1833,10 +1843,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="37.5">
@@ -1844,10 +1854,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1855,7 +1865,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
         <v>3</v>
@@ -1869,7 +1879,7 @@
         <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="37.5">
@@ -1877,7 +1887,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C81" t="s">
         <v>3</v>
@@ -1888,10 +1898,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1899,7 +1909,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
         <v>3</v>
@@ -1910,10 +1920,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1921,7 +1931,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85" t="s">
         <v>3</v>
@@ -1932,10 +1942,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1943,7 +1953,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
@@ -1954,7 +1964,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
@@ -1965,7 +1975,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C89" t="s">
         <v>3</v>
